--- a/results/mp/logistic/corona/confidence/210/0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,88 +58,85 @@
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -497,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -508,7 +505,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -566,13 +563,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7568493150684932</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="C3">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D3">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -584,19 +581,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -608,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +637,13 @@
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.925</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -658,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -666,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3333333333333333</v>
+        <v>0.3372093023255814</v>
       </c>
       <c r="C5">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D5">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -684,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,13 +713,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2147651006711409</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -734,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -758,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -766,13 +763,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1138888888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -784,19 +781,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.8485639686684073</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L7">
-        <v>325</v>
+        <v>86</v>
       </c>
       <c r="M7">
-        <v>325</v>
+        <v>86</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -808,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -816,13 +813,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -834,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -842,13 +839,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8301886792452831</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L9">
-        <v>88</v>
+        <v>310</v>
       </c>
       <c r="M9">
-        <v>88</v>
+        <v>310</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -860,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -868,13 +865,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8125</v>
+        <v>0.796875</v>
       </c>
       <c r="L10">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="M10">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -886,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -894,13 +891,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7948717948717948</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -912,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -920,13 +917,13 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -938,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -946,13 +943,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -964,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -972,13 +969,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7676056338028169</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -990,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -998,13 +995,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7575757575757576</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1016,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1024,13 +1021,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.75</v>
+        <v>0.75625</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1042,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1050,13 +1047,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7421875</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L17">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1068,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1076,13 +1073,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7083333333333334</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1094,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1102,13 +1099,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.7021276595744681</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1120,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1128,13 +1125,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6825396825396826</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L20">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1146,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1154,13 +1151,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6176470588235294</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L21">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1172,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>130</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1180,13 +1177,13 @@
         <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6046511627906976</v>
+        <v>0.64</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1198,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1206,13 +1203,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.58</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1224,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>21</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1232,13 +1229,13 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5774058577405857</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L24">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="M24">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1250,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>101</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1258,13 +1255,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5538461538461539</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1276,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1284,13 +1281,13 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5457627118644067</v>
+        <v>0.5694915254237288</v>
       </c>
       <c r="L26">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="M26">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1302,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1336,13 +1333,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.5425531914893617</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L28">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1354,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1362,13 +1359,13 @@
         <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4269662921348314</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1380,33 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="L30">
-        <v>26</v>
-      </c>
-      <c r="M30">
-        <v>26</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
